--- a/can_sel_course_user_info.xlsx
+++ b/can_sel_course_user_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,42 +474,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5474825034</t>
+          <t>5589013665</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>piimatalabasi</t>
+          <t>Ozodbek_Ernazarov1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ozodbek Ernazarov</t>
+          <t>Ozodbek</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+998948607982</t>
+          <t>+998943426642</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Standart</t>
+          <t>Qahramon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-04-12 22:39:27</t>
+          <t>2024-09-17 07:40:08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>333.333</t>
+          <t>499.000</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-04-12 22:39:39</t>
+          <t>2024-09-17 07:43:18</t>
         </is>
       </c>
     </row>
@@ -539,22 +539,67 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Biznes</t>
+          <t>Qahramon</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-04-12 22:40:08</t>
+          <t>2024-09-17 07:49:18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>555.555</t>
+          <t>499.000</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-04-12 22:40:17</t>
+          <t>2024-09-17 07:51:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5474825034</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>piimatalabasi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ozodbek Ernazarov</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>+998948607982</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Qahramon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:01:17</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>499.000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-09-17 19:01:30</t>
         </is>
       </c>
     </row>
